--- a/login/testdata.xlsx
+++ b/login/testdata.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,6 +1278,33 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sanjeev</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>sa@gmail.com</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>baba</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/login/testdata.xlsx
+++ b/login/testdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,6 +1305,33 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ganeshmoorthy</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ganesh@gmail.com</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
